--- a/McColl_2023_Muscle Protein Synthesis Kinetic Model_230919/Input Data/230922_K-values, IOM.xlsx
+++ b/McColl_2023_Muscle Protein Synthesis Kinetic Model_230919/Input Data/230922_K-values, IOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylormccoll/Documents/SFU/1. Ph.D./1. Research Projects/1. Network Feedback/6. Manuscript/Manuscript Versions/230912_revision/Manuscript/MuscleProteinSynthesisKineticModel/GitHub/McColl_2023_Muscle Protein Synthesis Kinetic Model_230919/Input Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC16E6-CBA7-4445-AF95-C2BFEFCE1A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488CDCC-4E71-984A-BA63-4428DBD2E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10560" yWindow="-21100" windowWidth="25600" windowHeight="21100" xr2:uid="{9CBEF236-04CD-714E-9D13-3E7D349EFA2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="230923_optimized" sheetId="10" r:id="rId1"/>
+    <sheet name="230930" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -410,16 +410,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E58BD5F-322D-874A-ADCF-665A86960DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FED082-40A7-A34A-84E1-1D3793C44B52}">
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -500,9 +499,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>9.5200000000000001E-15</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>1.428E-14</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -549,9 +548,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>52938.62</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>50821.075199999999</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -937,7 +936,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -945,7 +944,7 @@
         <v>3.89E-10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -953,7 +952,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -961,7 +960,7 @@
         <v>45000000000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -969,7 +968,7 @@
         <v>1.3900000000000001E-10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -977,11 +976,17 @@
         <v>4.9800000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="1">
+        <v>6.615E-17</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="1">
         <v>4.4099999999999998E-17</v>
       </c>
     </row>
